--- a/Sum-for-Merged-Cells Updated.xlsx
+++ b/Sum-for-Merged-Cells Updated.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ravrana\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rrana\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D0D8051-80FD-4EEF-8D2D-D993029D773C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD45184-EFED-464B-9A08-9B0CA9A3369A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -141,10 +141,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -428,11 +428,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P20"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
   </cols>
@@ -441,25 +441,25 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4">
+      <c r="B1" s="5">
         <v>2014</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5">
         <v>2015</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4">
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5">
         <v>2016</v>
       </c>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="5">
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="4">
         <v>2017</v>
       </c>
       <c r="O1" s="6">
@@ -852,31 +852,23 @@
         <v>1</v>
       </c>
       <c r="B14">
-        <f ca="1">IF(B$13=2014,SUM(OFFSET($B1,1,0,1,(ABS(IFERROR(MATCH(C$13,$B$1:$P$1,0),0) - IFERROR(MATCH(B$13,$B$1:$P$1,0),0))))),
-IF(B$13=2015,SUM(OFFSET($E1,1,0,1,(ABS(IFERROR(MATCH(C$13,$B$1:$P$1,0),0) - IFERROR(MATCH(B$13,$B$1:$P$1,0),0))))),
-IF(B$13=2016,SUM(OFFSET($J1,1,0,1,(ABS(IFERROR(MATCH(C$13,$B$1:$P$1,0),0) - IFERROR(MATCH(B$13,$B$1:$P$1,0),0))))),
-IF(B$13=2017,SUM(OFFSET($N1,1,0,1,(ABS(IFERROR(MATCH(C$13,$B$1:$P$1,0),0) - IFERROR(MATCH(B$13,$B$1:$P$1,0),0))))),
-IF(B$13=2018,SUM(OFFSET($O1,1,0,1,(ABS(IFERROR(MATCH(C$13,$B$1:$P$1,0),0) - IFERROR(MATCH(B$13,$B$1:$P$1,0),0))))),0)))))</f>
+        <f ca="1">SUM(OFFSET($A$1,ROWS($1:1),MATCH(B$13,$1:$1,0)-1,,IFERROR(MATCH(C$13,$1:$1,0),COUNTA($2:$2)+1)-MATCH(B$13,$1:$1,0)))</f>
         <v>183</v>
       </c>
       <c r="C14">
-        <f t="shared" ref="C14:F14" ca="1" si="0">IF(C$13=2014,SUM(OFFSET($B1,1,0,1,(ABS(IFERROR(MATCH(D$13,$B$1:$P$1,0),0) - IFERROR(MATCH(C$13,$B$1:$P$1,0),0))))),
-IF(C$13=2015,SUM(OFFSET($E1,1,0,1,(ABS(IFERROR(MATCH(D$13,$B$1:$P$1,0),0) - IFERROR(MATCH(C$13,$B$1:$P$1,0),0))))),
-IF(C$13=2016,SUM(OFFSET($J1,1,0,1,(ABS(IFERROR(MATCH(D$13,$B$1:$P$1,0),0) - IFERROR(MATCH(C$13,$B$1:$P$1,0),0))))),
-IF(C$13=2017,SUM(OFFSET($N1,1,0,1,(ABS(IFERROR(MATCH(D$13,$B$1:$P$1,0),0) - IFERROR(MATCH(C$13,$B$1:$P$1,0),0))))),
-IF(C$13=2018,SUM(OFFSET($O1,1,0,1,(ABS(IFERROR(MATCH(D$13,$B$1:$P$1,0),0) - IFERROR(MATCH(C$13,$B$1:$P$1,0),0))))),0)))))</f>
+        <f ca="1">SUM(OFFSET($A$1,ROWS($1:1),MATCH(C$13,$1:$1,0)-1,,IFERROR(MATCH(D$13,$1:$1,0),COUNTA($2:$2)+1)-MATCH(C$13,$1:$1,0)))</f>
         <v>265</v>
       </c>
       <c r="D14">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">SUM(OFFSET($A$1,ROWS($1:1),MATCH(D$13,$1:$1,0)-1,,IFERROR(MATCH(E$13,$1:$1,0),COUNTA($2:$2)+1)-MATCH(D$13,$1:$1,0)))</f>
         <v>295</v>
       </c>
       <c r="E14">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">SUM(OFFSET($A$1,ROWS($1:1),MATCH(E$13,$1:$1,0)-1,,IFERROR(MATCH(F$13,$1:$1,0),COUNTA($2:$2)+1)-MATCH(E$13,$1:$1,0)))</f>
         <v>43</v>
       </c>
       <c r="F14">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">SUM(OFFSET($A$1,ROWS($1:1),MATCH(F$13,$1:$1,0)-1,,IFERROR(MATCH(G$13,$1:$1,0),COUNTA($2:$2)+1)-MATCH(F$13,$1:$1,0)))</f>
         <v>48</v>
       </c>
     </row>
@@ -885,27 +877,23 @@
         <v>2</v>
       </c>
       <c r="B15">
-        <f t="shared" ref="B15:F20" ca="1" si="1">IF(B$13=2014,SUM(OFFSET($B2,1,0,1,(ABS(IFERROR(MATCH(C$13,$B$1:$P$1,0),0) - IFERROR(MATCH(B$13,$B$1:$P$1,0),0))))),
-IF(B$13=2015,SUM(OFFSET($E2,1,0,1,(ABS(IFERROR(MATCH(C$13,$B$1:$P$1,0),0) - IFERROR(MATCH(B$13,$B$1:$P$1,0),0))))),
-IF(B$13=2016,SUM(OFFSET($J2,1,0,1,(ABS(IFERROR(MATCH(C$13,$B$1:$P$1,0),0) - IFERROR(MATCH(B$13,$B$1:$P$1,0),0))))),
-IF(B$13=2017,SUM(OFFSET($N2,1,0,1,(ABS(IFERROR(MATCH(C$13,$B$1:$P$1,0),0) - IFERROR(MATCH(B$13,$B$1:$P$1,0),0))))),
-IF(B$13=2018,SUM(OFFSET($O2,1,0,1,(ABS(IFERROR(MATCH(C$13,$B$1:$P$1,0),0) - IFERROR(MATCH(B$13,$B$1:$P$1,0),0))))),0)))))</f>
+        <f ca="1">SUM(OFFSET($A$1,ROWS($1:2),MATCH(B$13,$1:$1,0)-1,,IFERROR(MATCH(C$13,$1:$1,0),COUNTA($2:$2)+1)-MATCH(B$13,$1:$1,0)))</f>
         <v>197</v>
       </c>
       <c r="C15">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">SUM(OFFSET($A$1,ROWS($1:2),MATCH(C$13,$1:$1,0)-1,,IFERROR(MATCH(D$13,$1:$1,0),COUNTA($2:$2)+1)-MATCH(C$13,$1:$1,0)))</f>
         <v>343</v>
       </c>
       <c r="D15">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">SUM(OFFSET($A$1,ROWS($1:2),MATCH(D$13,$1:$1,0)-1,,IFERROR(MATCH(E$13,$1:$1,0),COUNTA($2:$2)+1)-MATCH(D$13,$1:$1,0)))</f>
         <v>259</v>
       </c>
       <c r="E15">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">SUM(OFFSET($A$1,ROWS($1:2),MATCH(E$13,$1:$1,0)-1,,IFERROR(MATCH(F$13,$1:$1,0),COUNTA($2:$2)+1)-MATCH(E$13,$1:$1,0)))</f>
         <v>23</v>
       </c>
       <c r="F15">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">SUM(OFFSET($A$1,ROWS($1:2),MATCH(F$13,$1:$1,0)-1,,IFERROR(MATCH(G$13,$1:$1,0),COUNTA($2:$2)+1)-MATCH(F$13,$1:$1,0)))</f>
         <v>90</v>
       </c>
     </row>
@@ -914,23 +902,23 @@
         <v>3</v>
       </c>
       <c r="B16">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">SUM(OFFSET($A$1,ROWS($1:3),MATCH(B$13,$1:$1,0)-1,,IFERROR(MATCH(C$13,$1:$1,0),COUNTA($2:$2)+1)-MATCH(B$13,$1:$1,0)))</f>
         <v>142</v>
       </c>
       <c r="C16">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">SUM(OFFSET($A$1,ROWS($1:3),MATCH(C$13,$1:$1,0)-1,,IFERROR(MATCH(D$13,$1:$1,0),COUNTA($2:$2)+1)-MATCH(C$13,$1:$1,0)))</f>
         <v>257</v>
       </c>
       <c r="D16">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">SUM(OFFSET($A$1,ROWS($1:3),MATCH(D$13,$1:$1,0)-1,,IFERROR(MATCH(E$13,$1:$1,0),COUNTA($2:$2)+1)-MATCH(D$13,$1:$1,0)))</f>
         <v>164</v>
       </c>
       <c r="E16">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">SUM(OFFSET($A$1,ROWS($1:3),MATCH(E$13,$1:$1,0)-1,,IFERROR(MATCH(F$13,$1:$1,0),COUNTA($2:$2)+1)-MATCH(E$13,$1:$1,0)))</f>
         <v>67</v>
       </c>
       <c r="F16">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">SUM(OFFSET($A$1,ROWS($1:3),MATCH(F$13,$1:$1,0)-1,,IFERROR(MATCH(G$13,$1:$1,0),COUNTA($2:$2)+1)-MATCH(F$13,$1:$1,0)))</f>
         <v>97</v>
       </c>
     </row>
@@ -939,23 +927,23 @@
         <v>4</v>
       </c>
       <c r="B17">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">SUM(OFFSET($A$1,ROWS($1:4),MATCH(B$13,$1:$1,0)-1,,IFERROR(MATCH(C$13,$1:$1,0),COUNTA($2:$2)+1)-MATCH(B$13,$1:$1,0)))</f>
         <v>85</v>
       </c>
       <c r="C17">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">SUM(OFFSET($A$1,ROWS($1:4),MATCH(C$13,$1:$1,0)-1,,IFERROR(MATCH(D$13,$1:$1,0),COUNTA($2:$2)+1)-MATCH(C$13,$1:$1,0)))</f>
         <v>237</v>
       </c>
       <c r="D17">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">SUM(OFFSET($A$1,ROWS($1:4),MATCH(D$13,$1:$1,0)-1,,IFERROR(MATCH(E$13,$1:$1,0),COUNTA($2:$2)+1)-MATCH(D$13,$1:$1,0)))</f>
         <v>235</v>
       </c>
       <c r="E17">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">SUM(OFFSET($A$1,ROWS($1:4),MATCH(E$13,$1:$1,0)-1,,IFERROR(MATCH(F$13,$1:$1,0),COUNTA($2:$2)+1)-MATCH(E$13,$1:$1,0)))</f>
         <v>12</v>
       </c>
       <c r="F17">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">SUM(OFFSET($A$1,ROWS($1:4),MATCH(F$13,$1:$1,0)-1,,IFERROR(MATCH(G$13,$1:$1,0),COUNTA($2:$2)+1)-MATCH(F$13,$1:$1,0)))</f>
         <v>125</v>
       </c>
     </row>
@@ -964,23 +952,23 @@
         <v>5</v>
       </c>
       <c r="B18">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">SUM(OFFSET($A$1,ROWS($1:5),MATCH(B$13,$1:$1,0)-1,,IFERROR(MATCH(C$13,$1:$1,0),COUNTA($2:$2)+1)-MATCH(B$13,$1:$1,0)))</f>
         <v>97</v>
       </c>
       <c r="C18">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">SUM(OFFSET($A$1,ROWS($1:5),MATCH(C$13,$1:$1,0)-1,,IFERROR(MATCH(D$13,$1:$1,0),COUNTA($2:$2)+1)-MATCH(C$13,$1:$1,0)))</f>
         <v>337</v>
       </c>
       <c r="D18">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">SUM(OFFSET($A$1,ROWS($1:5),MATCH(D$13,$1:$1,0)-1,,IFERROR(MATCH(E$13,$1:$1,0),COUNTA($2:$2)+1)-MATCH(D$13,$1:$1,0)))</f>
         <v>199</v>
       </c>
       <c r="E18">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">SUM(OFFSET($A$1,ROWS($1:5),MATCH(E$13,$1:$1,0)-1,,IFERROR(MATCH(F$13,$1:$1,0),COUNTA($2:$2)+1)-MATCH(E$13,$1:$1,0)))</f>
         <v>87</v>
       </c>
       <c r="F18">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">SUM(OFFSET($A$1,ROWS($1:5),MATCH(F$13,$1:$1,0)-1,,IFERROR(MATCH(G$13,$1:$1,0),COUNTA($2:$2)+1)-MATCH(F$13,$1:$1,0)))</f>
         <v>188</v>
       </c>
     </row>
@@ -989,23 +977,23 @@
         <v>6</v>
       </c>
       <c r="B19">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">SUM(OFFSET($A$1,ROWS($1:6),MATCH(B$13,$1:$1,0)-1,,IFERROR(MATCH(C$13,$1:$1,0),COUNTA($2:$2)+1)-MATCH(B$13,$1:$1,0)))</f>
         <v>157</v>
       </c>
       <c r="C19">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">SUM(OFFSET($A$1,ROWS($1:6),MATCH(C$13,$1:$1,0)-1,,IFERROR(MATCH(D$13,$1:$1,0),COUNTA($2:$2)+1)-MATCH(C$13,$1:$1,0)))</f>
         <v>254</v>
       </c>
       <c r="D19">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">SUM(OFFSET($A$1,ROWS($1:6),MATCH(D$13,$1:$1,0)-1,,IFERROR(MATCH(E$13,$1:$1,0),COUNTA($2:$2)+1)-MATCH(D$13,$1:$1,0)))</f>
         <v>180</v>
       </c>
       <c r="E19">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">SUM(OFFSET($A$1,ROWS($1:6),MATCH(E$13,$1:$1,0)-1,,IFERROR(MATCH(F$13,$1:$1,0),COUNTA($2:$2)+1)-MATCH(E$13,$1:$1,0)))</f>
         <v>5</v>
       </c>
       <c r="F19">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">SUM(OFFSET($A$1,ROWS($1:6),MATCH(F$13,$1:$1,0)-1,,IFERROR(MATCH(G$13,$1:$1,0),COUNTA($2:$2)+1)-MATCH(F$13,$1:$1,0)))</f>
         <v>50</v>
       </c>
     </row>
@@ -1014,24 +1002,46 @@
         <v>7</v>
       </c>
       <c r="B20">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">SUM(OFFSET($A$1,ROWS($1:7),MATCH(B$13,$1:$1,0)-1,,IFERROR(MATCH(C$13,$1:$1,0),COUNTA($2:$2)+1)-MATCH(B$13,$1:$1,0)))</f>
         <v>193</v>
       </c>
       <c r="C20">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">SUM(OFFSET($A$1,ROWS($1:7),MATCH(C$13,$1:$1,0)-1,,IFERROR(MATCH(D$13,$1:$1,0),COUNTA($2:$2)+1)-MATCH(C$13,$1:$1,0)))</f>
         <v>239</v>
       </c>
       <c r="D20">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">SUM(OFFSET($A$1,ROWS($1:7),MATCH(D$13,$1:$1,0)-1,,IFERROR(MATCH(E$13,$1:$1,0),COUNTA($2:$2)+1)-MATCH(D$13,$1:$1,0)))</f>
         <v>300</v>
       </c>
       <c r="E20">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">SUM(OFFSET($A$1,ROWS($1:7),MATCH(E$13,$1:$1,0)-1,,IFERROR(MATCH(F$13,$1:$1,0),COUNTA($2:$2)+1)-MATCH(E$13,$1:$1,0)))</f>
         <v>10</v>
       </c>
       <c r="F20">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">SUM(OFFSET($A$1,ROWS($1:7),MATCH(F$13,$1:$1,0)-1,,IFERROR(MATCH(G$13,$1:$1,0),COUNTA($2:$2)+1)-MATCH(F$13,$1:$1,0)))</f>
         <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="B21">
+        <f ca="1">SUM(B14:B20)</f>
+        <v>1054</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ref="C21:F21" ca="1" si="0">SUM(C14:C20)</f>
+        <v>1932</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ca="1" si="0"/>
+        <v>1632</v>
+      </c>
+      <c r="E21">
+        <f t="shared" ca="1" si="0"/>
+        <v>247</v>
+      </c>
+      <c r="F21">
+        <f t="shared" ca="1" si="0"/>
+        <v>697</v>
       </c>
     </row>
   </sheetData>
